--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/90_VisualModeling_Page/TransformWoe/90_LibFormula_TransformWoe.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/90_VisualModeling_Page/TransformWoe/90_LibFormula_TransformWoe.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>Action</t>
   </si>
@@ -162,9 +162,6 @@
     <t>PageRouters</t>
   </si>
   <si>
-    <t>TransformBin_PageLib</t>
-  </si>
-  <si>
     <t>validate</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>editButton_onClick</t>
+  </si>
+  <si>
+    <t>saveButtonConfigure_onClick</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -841,10 +841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -906,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -940,7 +940,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -954,10 +954,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -973,10 +973,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -992,16 +992,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1009,16 +1009,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1026,16 +1026,33 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/90_VisualModeling_Page/TransformWoe/90_LibFormula_TransformWoe.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/90_VisualModeling_Page/TransformWoe/90_LibFormula_TransformWoe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\90_VisualModeling_Page\TransformWoe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\lib_visualModel\90_VisualModeling_Page\TransformWoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Library_Formula!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Action</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>saveButtonConfigure_onClick</t>
+  </si>
+  <si>
+    <t>deleteButton_onClick</t>
   </si>
 </sst>
 </file>
@@ -841,10 +844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1052,6 +1055,23 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1103,6 +1123,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -1216,22 +1251,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1245,27 +1288,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>